--- a/TestData/TestDatas.xlsx
+++ b/TestData/TestDatas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>TestName</t>
   </si>
@@ -49,12 +49,25 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>TestStatus</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Skipped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -395,20 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="83.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +434,11 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,8 +451,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -448,6 +467,9 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
